--- a/ProjectPOM/data/TC001.xlsx
+++ b/ProjectPOM/data/TC001.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanga\eclipse-workspace\ProjectPOM\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18360" windowHeight="7512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18780" windowHeight="8004"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1299,7 +1295,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1345,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
